--- a/biology/Zoologie/Euthalia_sahadeva/Euthalia_sahadeva.xlsx
+++ b/biology/Zoologie/Euthalia_sahadeva/Euthalia_sahadeva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euthalia sahadeva est un papillon de la famille des Nymphalidae, de la sous-famille des Limenitidinae et du genre Euthalia.
 </t>
@@ -511,17 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euthalia sahadeva a été décrit  par Frederic Moore en 1859 sous le nom initial d'Adolias sahadeva[1].
-Nom vernaculaire
-Euthalia sahadeva se nomme Green Duke en anglais[1].
-Sous-espèces
-Euthalia sahadeva sahadeva; présent au Bhoutan et en Inde.
-Euthalia sahadeva nadaka Fruhstorfer, 1913; présent dans le nord-ouest de l'Inde en Assam
-Euthalia sahadeva narayana Grose-Smith &amp; Kirby, 1891; présent en Birmanie, au Laos et dans le bord de la Thaïlande[2].
-Euthalia sahadeva pyrrha Leech, [1892]; présent dans l'ouest de la Chine
-Euthalia sahadeva yanagisawai Sugiyama, 1996; présent dans le sud-ouest de la Chine au Yunnan[1],[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euthalia sahadeva a été décrit  par Frederic Moore en 1859 sous le nom initial d'Adolias sahadeva.
+</t>
         </is>
       </c>
     </row>
@@ -546,10 +553,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euthalia sahadeva se nomme Green Duke en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euthalia_sahadeva</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euthalia_sahadeva</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euthalia sahadeva sahadeva; présent au Bhoutan et en Inde.
+Euthalia sahadeva nadaka Fruhstorfer, 1913; présent dans le nord-ouest de l'Inde en Assam
+Euthalia sahadeva narayana Grose-Smith &amp; Kirby, 1891; présent en Birmanie, au Laos et dans le bord de la Thaïlande.
+Euthalia sahadeva pyrrha Leech, ; présent dans l'ouest de la Chine
+Euthalia sahadeva yanagisawai Sugiyama, 1996; présent dans le sud-ouest de la Chine au Yunnan,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Euthalia_sahadeva</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euthalia_sahadeva</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Euthalia sahadeva est un papillon aux ailes antérieures à bord externe festonné et concave et ailes postérieures à bord externefestonné.
 Sur le dessus les ailes antérieures sont grises à reflets verts avec une bande blanche du milieu du bord costal vers l'angle interne, les ailes postérieures grises à reflets vert et à bordure bleu clair.
@@ -557,68 +643,111 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Euthalia_sahadeva</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Euthalia_sahadeva</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euthalia sahadeva est présent en Birmanie, au Bhoutan, en Inde et dans l'ouest de la Chine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Euthalia_sahadeva</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Euthalia_sahadeva</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euthalia sahadeva est présent en Birmanie, au Bhoutan, en Inde et dans l'ouest de la Chine[1].
-Biotope
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Euthalia sahadeva, sur Wikimedia CommonsEuthalia sahadeva, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euthalia_sahadeva</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euthalia_sahadeva</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
